--- a/selenium18/src/test/resources/StudentRegister.xlsx
+++ b/selenium18/src/test/resources/StudentRegister.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\git\repository\selenium18\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAB8988-9425-4460-A9EC-0050329D6400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{23891DA8-0CA2-4E90-87BB-CCE636576EDF}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8832" xr2:uid="{204EE2C7-E6BA-4153-86CC-D1C3E445C39D}"/>
+    <workbookView windowHeight="8976" windowWidth="16608" xWindow="-108" xr2:uid="{204EE2C7-E6BA-4153-86CC-D1C3E445C39D}" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="StudentRecord" sheetId="1" r:id="rId1"/>
+    <sheet name="StudentRecord" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>RunMode</t>
   </si>
@@ -49,7 +49,7 @@
     <t>LastName</t>
   </si>
   <si>
-    <t>Address</t>
+    <t>Email Address</t>
   </si>
   <si>
     <t>PhoneNumber</t>
@@ -79,12 +79,6 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Australia</t>
-  </si>
-  <si>
     <t>name2</t>
   </si>
   <si>
@@ -94,57 +88,24 @@
     <t>Female</t>
   </si>
   <si>
-    <t>Belgium</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
+    <t>Kiran</t>
+  </si>
+  <si>
     <t>name3</t>
   </si>
   <si>
     <t>test3@gmail.com</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
     <t>name4</t>
   </si>
   <si>
     <t>test4@gmail.com</t>
   </si>
   <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>name5</t>
-  </si>
-  <si>
-    <t>test5@gmail.com</t>
-  </si>
-  <si>
-    <t>Hindi</t>
-  </si>
-  <si>
-    <t>Saudi Arabia</t>
-  </si>
-  <si>
-    <t>Date of Birth</t>
-  </si>
-  <si>
-    <t>Subjects</t>
-  </si>
-  <si>
-    <t>Maths</t>
-  </si>
-  <si>
-    <t>Science</t>
-  </si>
-  <si>
-    <t>History</t>
-  </si>
-  <si>
     <t>Sports</t>
   </si>
   <si>
@@ -154,49 +115,44 @@
     <t>Music</t>
   </si>
   <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>EmailAddress</t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Montha</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
   <si>
     <t>Ram</t>
   </si>
   <si>
-    <t>Reena</t>
-  </si>
-  <si>
-    <t>Meera</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Rosy</t>
-  </si>
-  <si>
-    <t>image1</t>
-  </si>
-  <si>
-    <t>image2</t>
-  </si>
-  <si>
-    <t>image3</t>
-  </si>
-  <si>
-    <t>image4</t>
-  </si>
-  <si>
-    <t>image5</t>
+    <t>Riya</t>
+  </si>
+  <si>
+    <t>Hemant</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[$-409]d\-mmm\-yyyy;@"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -240,21 +196,21 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -271,10 +227,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -309,7 +265,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -361,7 +317,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -472,21 +428,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -503,7 +459,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -555,33 +511,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7F364F-08BE-4570-A6DD-E9E136845782}">
-  <dimension ref="A1:M6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7F364F-08BE-4570-A6DD-E9E136845782}">
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.88671875" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" customWidth="1"/>
-    <col min="4" max="4" width="10.21875" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" customWidth="1"/>
-    <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="14.88671875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="10.77734375" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="10.21875" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="10.109375" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" width="14.0" collapsed="false"/>
+    <col min="7" max="9" customWidth="true" width="13.6640625" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" width="14.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -598,31 +553,28 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -630,7 +582,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -644,23 +596,23 @@
       <c r="G2">
         <v>9876543210</v>
       </c>
-      <c r="H2" s="3">
-        <v>36753</v>
+      <c r="H2">
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
         <v>36</v>
       </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -668,75 +620,75 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3">
         <v>9876543211</v>
       </c>
-      <c r="H3" s="3">
-        <v>30144</v>
+      <c r="H3">
+        <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1997</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G4">
         <v>9876543212</v>
       </c>
-      <c r="H4" s="3">
-        <v>36161</v>
+      <c r="H4">
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1998</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -744,83 +696,44 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G5">
         <v>9876543213</v>
       </c>
-      <c r="H5" s="3">
-        <v>36224</v>
+      <c r="H5">
+        <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2001</v>
       </c>
       <c r="K5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6">
-        <v>9876543214</v>
-      </c>
-      <c r="H6" s="3">
-        <v>35895</v>
-      </c>
-      <c r="I6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{8123AE10-87FD-4440-8286-76CE5B382CCA}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{9EE835AB-4A36-44DF-BFB5-B3568C0766F1}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{28939DE9-D74B-4395-948A-03E63F5ECE67}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{1C3E5767-9572-4864-B025-644B9A586CF5}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{629F2711-57EE-4D31-A483-927B856FCF48}"/>
+    <hyperlink r:id="rId1" ref="F2" xr:uid="{8123AE10-87FD-4440-8286-76CE5B382CCA}"/>
+    <hyperlink r:id="rId2" ref="F3" xr:uid="{9EE835AB-4A36-44DF-BFB5-B3568C0766F1}"/>
+    <hyperlink r:id="rId3" ref="F4" xr:uid="{28939DE9-D74B-4395-948A-03E63F5ECE67}"/>
+    <hyperlink r:id="rId4" ref="F5" xr:uid="{1C3E5767-9572-4864-B025-644B9A586CF5}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>